--- a/DateBase/orders/name001_2024-9-12.xlsx
+++ b/DateBase/orders/name001_2024-9-12.xlsx
@@ -33,7 +33,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -454,8 +458,23 @@
       <c r="D2" t="str">
         <v>800 g</v>
       </c>
+      <c r="E2" t="str">
+        <v>21</v>
+      </c>
       <c r="F2" t="str">
         <v>20</v>
+      </c>
+      <c r="G2" t="str">
+        <v>21</v>
+      </c>
+      <c r="H2" t="str">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>43.42875</v>
+      </c>
+      <c r="L2">
+        <v>868.575</v>
       </c>
     </row>
     <row r="3">
@@ -471,8 +490,23 @@
       <c r="D3" t="str">
         <v>600 g</v>
       </c>
+      <c r="E3" t="str">
+        <v>32</v>
+      </c>
       <c r="F3" t="str">
         <v>30</v>
+      </c>
+      <c r="G3" t="str">
+        <v>22</v>
+      </c>
+      <c r="H3" t="str">
+        <v>23</v>
+      </c>
+      <c r="K3">
+        <v>36.42875</v>
+      </c>
+      <c r="L3">
+        <v>1092.8625</v>
       </c>
     </row>
     <row r="4">
@@ -488,8 +522,23 @@
       <c r="D4" t="str">
         <v>800 g</v>
       </c>
+      <c r="E4" t="str">
+        <v>21</v>
+      </c>
       <c r="F4" t="str">
         <v>10</v>
+      </c>
+      <c r="G4" t="str">
+        <v>32</v>
+      </c>
+      <c r="H4" t="str">
+        <v>43</v>
+      </c>
+      <c r="K4">
+        <v>56.42875</v>
+      </c>
+      <c r="L4">
+        <v>564.2875</v>
       </c>
     </row>
     <row r="5">
@@ -505,8 +554,23 @@
       <c r="D5" t="str">
         <v>600 g</v>
       </c>
+      <c r="E5" t="str">
+        <v>33</v>
+      </c>
       <c r="F5" t="str">
         <v>20</v>
+      </c>
+      <c r="G5" t="str">
+        <v>21</v>
+      </c>
+      <c r="H5" t="str">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>45.42875</v>
+      </c>
+      <c r="L5">
+        <v>908.575</v>
       </c>
     </row>
   </sheetData>
@@ -548,22 +612,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>200.32</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>209.32</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>231.22</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00</v>
+        <v>112.32</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>321.12</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>1074.30</v>
       </c>
       <c r="G2" t="str">
         <v>020301020</v>

--- a/DateBase/orders/name001_2024-9-12.xlsx
+++ b/DateBase/orders/name001_2024-9-12.xlsx
@@ -454,8 +454,23 @@
       <c r="D2" t="str">
         <v>800 g</v>
       </c>
+      <c r="E2" t="str">
+        <v>0.8</v>
+      </c>
       <c r="F2" t="str">
         <v>30</v>
+      </c>
+      <c r="G2" t="str">
+        <v>23</v>
+      </c>
+      <c r="H2" t="str">
+        <v>32</v>
+      </c>
+      <c r="K2">
+        <v>45.4114</v>
+      </c>
+      <c r="L2">
+        <v>1362.342</v>
       </c>
     </row>
     <row r="3">
@@ -471,8 +486,23 @@
       <c r="D3" t="str">
         <v>600 g</v>
       </c>
+      <c r="E3" t="str">
+        <v>0.6</v>
+      </c>
       <c r="F3" t="str">
         <v>10</v>
+      </c>
+      <c r="G3" t="str">
+        <v>21</v>
+      </c>
+      <c r="H3" t="str">
+        <v>23</v>
+      </c>
+      <c r="K3">
+        <v>36.4114</v>
+      </c>
+      <c r="L3">
+        <v>364.11400000000003</v>
       </c>
     </row>
     <row r="4">
@@ -488,8 +518,23 @@
       <c r="D4" t="str">
         <v>800 g</v>
       </c>
+      <c r="E4" t="str">
+        <v>0.8</v>
+      </c>
       <c r="F4" t="str">
         <v>20</v>
+      </c>
+      <c r="G4" t="str">
+        <v>32</v>
+      </c>
+      <c r="H4" t="str">
+        <v>33</v>
+      </c>
+      <c r="K4">
+        <v>46.4114</v>
+      </c>
+      <c r="L4">
+        <v>928.2280000000001</v>
       </c>
     </row>
     <row r="5">
@@ -505,8 +550,23 @@
       <c r="D5" t="str">
         <v>800 g</v>
       </c>
+      <c r="E5" t="str">
+        <v>0.8</v>
+      </c>
       <c r="F5" t="str">
         <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <v>21</v>
+      </c>
+      <c r="H5" t="str">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>45.4114</v>
+      </c>
+      <c r="L5">
+        <v>1362.342</v>
       </c>
     </row>
     <row r="6">
@@ -522,8 +582,23 @@
       <c r="D6" t="str">
         <v>600 g</v>
       </c>
+      <c r="E6" t="str">
+        <v>0.6</v>
+      </c>
       <c r="F6" t="str">
         <v>10</v>
+      </c>
+      <c r="G6" t="str">
+        <v>32</v>
+      </c>
+      <c r="H6" t="str">
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <v>56.4114</v>
+      </c>
+      <c r="L6">
+        <v>564.114</v>
       </c>
     </row>
   </sheetData>
@@ -565,22 +640,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>123.32</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>231.24</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>432.12</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00</v>
+        <v>231.34</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>323.12</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>1341.14</v>
       </c>
       <c r="G2" t="str">
         <v>03010203010</v>
